--- a/biology/Zoologie/Geogarypus_longidigitatus/Geogarypus_longidigitatus.xlsx
+++ b/biology/Zoologie/Geogarypus_longidigitatus/Geogarypus_longidigitatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geogarypus longidigitatus est une espèce de pseudoscorpions de la famille des Geogarypidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Chine, à Taïwan, en Thaïlande, en Malaisie, à Singapour, en Indonésie, aux Philippines, au Japon à Minamitori-shima, aux Îles Mariannes du Nord, aux Îles Marshall, aux États fédérés de Micronésie, en Papouasie-Nouvelle-Guinée, en Australie au Queensland, aux Îles Salomon, aux Tuvalu, aux Fidji, aux Tonga, aux Samoa, à Niue, aux Îles Cook, en Polynésie française, aux Îles Pitcairn, au Chili à l'île de Pâques, aux États-Unis à Hawaï[1],[2], au Laos[3] et au Sri Lanka[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Chine, à Taïwan, en Thaïlande, en Malaisie, à Singapour, en Indonésie, aux Philippines, au Japon à Minamitori-shima, aux Îles Mariannes du Nord, aux Îles Marshall, aux États fédérés de Micronésie, en Papouasie-Nouvelle-Guinée, en Australie au Queensland, aux Îles Salomon, aux Tuvalu, aux Fidji, aux Tonga, aux Samoa, à Niue, aux Îles Cook, en Polynésie française, aux Îles Pitcairn, au Chili à l'île de Pâques, aux États-Unis à Hawaï au Laos et au Sri Lanka.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 1,35 à 1,62 mm et les femelles de 1,83 à 1,91 mm[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 1,35 à 1,62 mm et les femelles de 1,83 à 1,91 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Chelifer longidigitatus par Rainbow en 1897. Elle est placée dans le genre Garypus par Pocock en 1898[6] puis dans le genre Geogarypus par Chamberlin en 1930[7].
-Harvey en  2000 établie la liste de ses synonymes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Chelifer longidigitatus par Rainbow en 1897. Elle est placée dans le genre Garypus par Pocock en 1898 puis dans le genre Geogarypus par Chamberlin en 1930.
+Harvey en  2000 établie la liste de ses synonymes.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rainbow, 1897 : The arachnidan fauna of Funafuti. Memoirs of the Australian Museum, vol. 3, no 1, p. 105-124 (texte intégral).</t>
         </is>
